--- a/tests/VN8543 - FINHAY - Topline.xlsx
+++ b/tests/VN8543 - FINHAY - Topline.xlsx
@@ -1,57 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Content" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Content" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Total_C_W" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Total_C" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Total_P_W" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <color rgb="000000FF"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00203764"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00305496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00538DD5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9E1F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DAEEF3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -74,21 +107,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted"/>
+      <right style="dotted"/>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+    </border>
+    <border>
+      <left style="dotted"/>
+      <right style="thin"/>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+    </border>
+    <border>
+      <left style="dotted"/>
+      <right style="dotted"/>
+      <top style="dotted"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="dotted"/>
+      <right style="thin"/>
+      <top style="dotted"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -376,22 +585,5213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="60" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Content</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Total_C_W</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Total_C</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Total_P_W</t>
+        </is>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col hidden="1" width="13" customWidth="1" min="3" max="3"/>
+    <col hidden="1" width="13" customWidth="1" min="4" max="4"/>
+    <col width="40" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" hidden="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>qre_name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>qre_lbl</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>qre_type</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>cat_val</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>cat_lbl</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>S2 &gt; 0@City@Total@val@A</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>S2 == 1@City@Hanoi@val@B</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>S2 == 2@City@HCMC@val@C</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" hidden="1">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>S2 &gt; 0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>S2 == 1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>S2 == 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cell content: count</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="6" t="n"/>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Weighted with: Weighting</t>
+        </is>
+      </c>
+      <c r="F4" s="7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>Hanoi</t>
+        </is>
+      </c>
+      <c r="H4" s="7" t="inlineStr">
+        <is>
+          <t>HCMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>Please select all the product channels that you have invested in financially so far. Multiple answers are possible</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="inlineStr">
+        <is>
+          <t>Weighted Base</t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>922.8999999999997</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>456.3</v>
+      </c>
+      <c r="H5" s="11" t="n">
+        <v>466.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12" t="n"/>
+      <c r="B6" s="12" t="n"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" s="13" t="inlineStr">
+        <is>
+          <t>Saving</t>
+        </is>
+      </c>
+      <c r="F6" s="13" t="n">
+        <v>447.6</v>
+      </c>
+      <c r="G6" s="13" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="H6" s="14" t="n">
+        <v>197.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="12" t="n"/>
+      <c r="B7" s="12" t="n"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="13" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="F7" s="13" t="n">
+        <v>246.3</v>
+      </c>
+      <c r="G7" s="13" t="n">
+        <v>108.3</v>
+      </c>
+      <c r="H7" s="14" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12" t="n"/>
+      <c r="B8" s="12" t="n"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E8" s="13" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="F8" s="13" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="G8" s="13" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H8" s="14" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12" t="n"/>
+      <c r="B9" s="12" t="n"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E9" s="13" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="F9" s="13" t="n">
+        <v>562.3999999999996</v>
+      </c>
+      <c r="G9" s="13" t="n">
+        <v>278.9</v>
+      </c>
+      <c r="H9" s="14" t="n">
+        <v>283.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12" t="n"/>
+      <c r="B10" s="12" t="n"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="13" t="inlineStr">
+        <is>
+          <t>Real estate</t>
+        </is>
+      </c>
+      <c r="F10" s="13" t="n">
+        <v>532.7999999999997</v>
+      </c>
+      <c r="G10" s="13" t="n">
+        <v>233.1</v>
+      </c>
+      <c r="H10" s="14" t="n">
+        <v>299.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="n"/>
+      <c r="B11" s="12" t="n"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E11" s="13" t="inlineStr">
+        <is>
+          <t>Mutual funds</t>
+        </is>
+      </c>
+      <c r="F11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12" t="n"/>
+      <c r="B12" s="12" t="n"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E12" s="13" t="inlineStr">
+        <is>
+          <t>ETF</t>
+        </is>
+      </c>
+      <c r="F12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="12" t="n"/>
+      <c r="B13" s="12" t="n"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="13" t="inlineStr">
+        <is>
+          <t>Foreign exchange (Forex)</t>
+        </is>
+      </c>
+      <c r="F13" s="13" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="G13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="12" t="n"/>
+      <c r="B14" s="12" t="n"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E14" s="13" t="inlineStr">
+        <is>
+          <t>Derivatives</t>
+        </is>
+      </c>
+      <c r="F14" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G14" s="13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H14" s="14" t="n">
+        <v>6.199999999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="12" t="n"/>
+      <c r="B15" s="12" t="n"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E15" s="13" t="inlineStr">
+        <is>
+          <t>Crypto</t>
+        </is>
+      </c>
+      <c r="F15" s="13" t="n">
+        <v>391.7999999999999</v>
+      </c>
+      <c r="G15" s="13" t="n">
+        <v>167.8</v>
+      </c>
+      <c r="H15" s="14" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="12" t="n"/>
+      <c r="B16" s="12" t="n"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="13" t="inlineStr">
+        <is>
+          <t>I have not invested in any product before</t>
+        </is>
+      </c>
+      <c r="F16" s="13" t="n">
+        <v>336.4</v>
+      </c>
+      <c r="G16" s="13" t="n">
+        <v>161.6</v>
+      </c>
+      <c r="H16" s="14" t="n">
+        <v>174.8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="15" t="n"/>
+      <c r="B17" s="15" t="n"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E17" s="16" t="inlineStr">
+        <is>
+          <t>Others, please specify</t>
+        </is>
+      </c>
+      <c r="F17" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="B18" s="9" t="inlineStr">
+        <is>
+          <t>Which product channels have you invested in financially in the past 3 years (From January 2022 to Now)? Multiple answers can be selected.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E18" s="10" t="inlineStr">
+        <is>
+          <t>Weighted Base</t>
+        </is>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>931.5999999999998</v>
+      </c>
+      <c r="G18" s="10" t="n">
+        <v>465.0000000000001</v>
+      </c>
+      <c r="H18" s="11" t="n">
+        <v>466.6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="12" t="n"/>
+      <c r="B19" s="12" t="n"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="13" t="inlineStr">
+        <is>
+          <t>Saving</t>
+        </is>
+      </c>
+      <c r="F19" s="13" t="n">
+        <v>587.9999999999997</v>
+      </c>
+      <c r="G19" s="13" t="n">
+        <v>343.7999999999999</v>
+      </c>
+      <c r="H19" s="14" t="n">
+        <v>244.2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="12" t="n"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" s="13" t="inlineStr">
+        <is>
+          <t>Crypto</t>
+        </is>
+      </c>
+      <c r="F20" s="13" t="n">
+        <v>107.1</v>
+      </c>
+      <c r="G20" s="13" t="n">
+        <v>31</v>
+      </c>
+      <c r="H20" s="14" t="n">
+        <v>76.09999999999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="12" t="n"/>
+      <c r="B21" s="12" t="n"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E21" s="13" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="F21" s="13" t="n">
+        <v>649.7999999999997</v>
+      </c>
+      <c r="G21" s="13" t="n">
+        <v>322.9</v>
+      </c>
+      <c r="H21" s="14" t="n">
+        <v>326.9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="12" t="n"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E22" s="13" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="F22" s="13" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="G22" s="13" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="H22" s="14" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="12" t="n"/>
+      <c r="B23" s="12" t="n"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E23" s="13" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="F23" s="13" t="n">
+        <v>297.0000000000001</v>
+      </c>
+      <c r="G23" s="13" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="H23" s="14" t="n">
+        <v>158.2000000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="12" t="n"/>
+      <c r="B24" s="12" t="n"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E24" s="13" t="inlineStr">
+        <is>
+          <t>Real estate</t>
+        </is>
+      </c>
+      <c r="F24" s="13" t="n">
+        <v>207.5000000000001</v>
+      </c>
+      <c r="G24" s="13" t="n">
+        <v>70.69999999999999</v>
+      </c>
+      <c r="H24" s="14" t="n">
+        <v>136.8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="12" t="n"/>
+      <c r="B25" s="12" t="n"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E25" s="13" t="inlineStr">
+        <is>
+          <t>Mutual funds</t>
+        </is>
+      </c>
+      <c r="F25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="12" t="n"/>
+      <c r="B26" s="12" t="n"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E26" s="13" t="inlineStr">
+        <is>
+          <t>ETF</t>
+        </is>
+      </c>
+      <c r="F26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="12" t="n"/>
+      <c r="B27" s="12" t="n"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E27" s="13" t="inlineStr">
+        <is>
+          <t>Foreign exchange (Forex)</t>
+        </is>
+      </c>
+      <c r="F27" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="12" t="n"/>
+      <c r="B28" s="12" t="n"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E28" s="13" t="inlineStr">
+        <is>
+          <t>Derivatives</t>
+        </is>
+      </c>
+      <c r="F28" s="13" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="G28" s="13" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H28" s="14" t="n">
+        <v>6.199999999999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="12" t="n"/>
+      <c r="B29" s="12" t="n"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E29" s="13" t="inlineStr">
+        <is>
+          <t>Others, please specify</t>
+        </is>
+      </c>
+      <c r="F29" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="12" t="n"/>
+      <c r="B30" s="12" t="n"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E30" s="13" t="inlineStr">
+        <is>
+          <t>I have not invested in any product before</t>
+        </is>
+      </c>
+      <c r="F30" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="15" t="n"/>
+      <c r="B31" s="15" t="n"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E31" s="16" t="inlineStr">
+        <is>
+          <t>I have not invested in any product in the past 3 years</t>
+        </is>
+      </c>
+      <c r="F31" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="B32" s="9" t="inlineStr">
+        <is>
+          <t>What financial product channels are you currently investing in? Multiple answers are possible</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E32" s="10" t="inlineStr">
+        <is>
+          <t>Weighted Base</t>
+        </is>
+      </c>
+      <c r="F32" s="10" t="n">
+        <v>931.5999999999998</v>
+      </c>
+      <c r="G32" s="10" t="n">
+        <v>465.0000000000001</v>
+      </c>
+      <c r="H32" s="11" t="n">
+        <v>466.6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="12" t="n"/>
+      <c r="B33" s="12" t="n"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E33" s="13" t="inlineStr">
+        <is>
+          <t>Saving</t>
+        </is>
+      </c>
+      <c r="F33" s="13" t="n">
+        <v>496.7</v>
+      </c>
+      <c r="G33" s="13" t="n">
+        <v>331.3999999999999</v>
+      </c>
+      <c r="H33" s="14" t="n">
+        <v>165.3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="12" t="n"/>
+      <c r="B34" s="12" t="n"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E34" s="13" t="inlineStr">
+        <is>
+          <t>Crypto</t>
+        </is>
+      </c>
+      <c r="F34" s="13" t="n">
+        <v>85.19999999999999</v>
+      </c>
+      <c r="G34" s="13" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="H34" s="14" t="n">
+        <v>66.60000000000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="12" t="n"/>
+      <c r="B35" s="12" t="n"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E35" s="13" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="F35" s="13" t="n">
+        <v>649.7999999999997</v>
+      </c>
+      <c r="G35" s="13" t="n">
+        <v>322.9</v>
+      </c>
+      <c r="H35" s="14" t="n">
+        <v>326.9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="12" t="n"/>
+      <c r="B36" s="12" t="n"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E36" s="13" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="F36" s="13" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="G36" s="13" t="n">
+        <v>67</v>
+      </c>
+      <c r="H36" s="14" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="12" t="n"/>
+      <c r="B37" s="12" t="n"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E37" s="13" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="F37" s="13" t="n">
+        <v>262.7</v>
+      </c>
+      <c r="G37" s="13" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="H37" s="14" t="n">
+        <v>130.1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="12" t="n"/>
+      <c r="B38" s="12" t="n"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E38" s="13" t="inlineStr">
+        <is>
+          <t>Real estate</t>
+        </is>
+      </c>
+      <c r="F38" s="13" t="n">
+        <v>186</v>
+      </c>
+      <c r="G38" s="13" t="n">
+        <v>70.69999999999999</v>
+      </c>
+      <c r="H38" s="14" t="n">
+        <v>115.3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12" t="n"/>
+      <c r="B39" s="12" t="n"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E39" s="13" t="inlineStr">
+        <is>
+          <t>Mutual funds</t>
+        </is>
+      </c>
+      <c r="F39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="12" t="n"/>
+      <c r="B40" s="12" t="n"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E40" s="13" t="inlineStr">
+        <is>
+          <t>ETF</t>
+        </is>
+      </c>
+      <c r="F40" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="12" t="n"/>
+      <c r="B41" s="12" t="n"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E41" s="13" t="inlineStr">
+        <is>
+          <t>Foreign exchange (Forex)</t>
+        </is>
+      </c>
+      <c r="F41" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="12" t="n"/>
+      <c r="B42" s="12" t="n"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E42" s="13" t="inlineStr">
+        <is>
+          <t>Derivatives</t>
+        </is>
+      </c>
+      <c r="F42" s="13" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="G42" s="13" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H42" s="14" t="n">
+        <v>6.199999999999999</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12" t="n"/>
+      <c r="B43" s="12" t="n"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E43" s="13" t="inlineStr">
+        <is>
+          <t>Others, please specify</t>
+        </is>
+      </c>
+      <c r="F43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="12" t="n"/>
+      <c r="B44" s="12" t="n"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E44" s="13" t="inlineStr">
+        <is>
+          <t>I have not invested in any product before</t>
+        </is>
+      </c>
+      <c r="F44" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="12" t="n"/>
+      <c r="B45" s="12" t="n"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E45" s="13" t="inlineStr">
+        <is>
+          <t>I have not invested in any product in the past 3 years</t>
+        </is>
+      </c>
+      <c r="F45" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="15" t="n"/>
+      <c r="B46" s="15" t="n"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E46" s="16" t="inlineStr">
+        <is>
+          <t>I’m not investing in finance</t>
+        </is>
+      </c>
+      <c r="F46" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="inlineStr">
+        <is>
+          <t>A3_intend</t>
+        </is>
+      </c>
+      <c r="B47" s="9" t="inlineStr">
+        <is>
+          <t>What financial product channels do you intend to invest in the next 6 months. Multiple answers are possible</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E47" s="10" t="inlineStr">
+        <is>
+          <t>Weighted Base</t>
+        </is>
+      </c>
+      <c r="F47" s="10" t="n">
+        <v>281.8</v>
+      </c>
+      <c r="G47" s="10" t="n">
+        <v>142.1000000000001</v>
+      </c>
+      <c r="H47" s="11" t="n">
+        <v>139.7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="12" t="n"/>
+      <c r="B48" s="12" t="n"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E48" s="13" t="inlineStr">
+        <is>
+          <t>Saving</t>
+        </is>
+      </c>
+      <c r="F48" s="13" t="n">
+        <v>172.3000000000001</v>
+      </c>
+      <c r="G48" s="13" t="n">
+        <v>107.4</v>
+      </c>
+      <c r="H48" s="14" t="n">
+        <v>64.89999999999998</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="12" t="n"/>
+      <c r="B49" s="12" t="n"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E49" s="13" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="F49" s="13" t="n">
+        <v>281.8</v>
+      </c>
+      <c r="G49" s="13" t="n">
+        <v>142.1000000000001</v>
+      </c>
+      <c r="H49" s="14" t="n">
+        <v>139.7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="12" t="n"/>
+      <c r="B50" s="12" t="n"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E50" s="13" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="F50" s="13" t="n">
+        <v>31</v>
+      </c>
+      <c r="G50" s="13" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="H50" s="14" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="12" t="n"/>
+      <c r="B51" s="12" t="n"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E51" s="13" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="F51" s="13" t="n">
+        <v>114.8</v>
+      </c>
+      <c r="G51" s="13" t="n">
+        <v>63.59999999999999</v>
+      </c>
+      <c r="H51" s="14" t="n">
+        <v>51.19999999999998</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="12" t="n"/>
+      <c r="B52" s="12" t="n"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E52" s="13" t="inlineStr">
+        <is>
+          <t>Real estate</t>
+        </is>
+      </c>
+      <c r="F52" s="13" t="n">
+        <v>69.39999999999999</v>
+      </c>
+      <c r="G52" s="13" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="H52" s="14" t="n">
+        <v>49.99999999999999</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="12" t="n"/>
+      <c r="B53" s="12" t="n"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E53" s="13" t="inlineStr">
+        <is>
+          <t>Mutual funds</t>
+        </is>
+      </c>
+      <c r="F53" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="12" t="n"/>
+      <c r="B54" s="12" t="n"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E54" s="13" t="inlineStr">
+        <is>
+          <t>ETF</t>
+        </is>
+      </c>
+      <c r="F54" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="12" t="n"/>
+      <c r="B55" s="12" t="n"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E55" s="13" t="inlineStr">
+        <is>
+          <t>Foreign exchange (Forex)</t>
+        </is>
+      </c>
+      <c r="F55" s="13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G55" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="14" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="12" t="n"/>
+      <c r="B56" s="12" t="n"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E56" s="13" t="inlineStr">
+        <is>
+          <t>Derivatives</t>
+        </is>
+      </c>
+      <c r="F56" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="12" t="n"/>
+      <c r="B57" s="12" t="n"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E57" s="13" t="inlineStr">
+        <is>
+          <t>Crypto</t>
+        </is>
+      </c>
+      <c r="F57" s="13" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="G57" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="H57" s="14" t="n">
+        <v>45.49999999999999</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="12" t="n"/>
+      <c r="B58" s="12" t="n"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E58" s="13" t="inlineStr">
+        <is>
+          <t>I do not intend to invest in finance</t>
+        </is>
+      </c>
+      <c r="F58" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="15" t="n"/>
+      <c r="B59" s="15" t="n"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E59" s="16" t="inlineStr">
+        <is>
+          <t>Khác (ghi rõ)</t>
+        </is>
+      </c>
+      <c r="F59" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="B32:B46"/>
+    <mergeCell ref="B18:B31"/>
+    <mergeCell ref="A47:A59"/>
+    <mergeCell ref="B47:B59"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B5:B17"/>
+    <mergeCell ref="A18:A31"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col hidden="1" width="13" customWidth="1" min="3" max="3"/>
+    <col hidden="1" width="13" customWidth="1" min="4" max="4"/>
+    <col width="40" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" hidden="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>qre_name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>qre_lbl</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>qre_type</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>cat_val</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>cat_lbl</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>S2 &gt; 0@City@Total@val@A</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>S2 == 1@City@Hanoi@val@B</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>S2 == 2@City@HCMC@val@C</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" hidden="1">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>S2 &gt; 0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>S2 == 1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>S2 == 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cell content: count</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="6" t="n"/>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="F4" s="7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>Hanoi</t>
+        </is>
+      </c>
+      <c r="H4" s="7" t="inlineStr">
+        <is>
+          <t>HCMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>Please select all the product channels that you have invested in financially so far. Multiple answers are possible</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>297</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>147</v>
+      </c>
+      <c r="H5" s="11" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12" t="n"/>
+      <c r="B6" s="12" t="n"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" s="13" t="inlineStr">
+        <is>
+          <t>Saving</t>
+        </is>
+      </c>
+      <c r="F6" s="13" t="n">
+        <v>144</v>
+      </c>
+      <c r="G6" s="13" t="n">
+        <v>81</v>
+      </c>
+      <c r="H6" s="14" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="12" t="n"/>
+      <c r="B7" s="12" t="n"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="13" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="F7" s="13" t="n">
+        <v>79</v>
+      </c>
+      <c r="G7" s="13" t="n">
+        <v>35</v>
+      </c>
+      <c r="H7" s="14" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12" t="n"/>
+      <c r="B8" s="12" t="n"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E8" s="13" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="F8" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="H8" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12" t="n"/>
+      <c r="B9" s="12" t="n"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E9" s="13" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="F9" s="13" t="n">
+        <v>180</v>
+      </c>
+      <c r="G9" s="13" t="n">
+        <v>89</v>
+      </c>
+      <c r="H9" s="14" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12" t="n"/>
+      <c r="B10" s="12" t="n"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="13" t="inlineStr">
+        <is>
+          <t>Real estate</t>
+        </is>
+      </c>
+      <c r="F10" s="13" t="n">
+        <v>172</v>
+      </c>
+      <c r="G10" s="13" t="n">
+        <v>75</v>
+      </c>
+      <c r="H10" s="14" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="n"/>
+      <c r="B11" s="12" t="n"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E11" s="13" t="inlineStr">
+        <is>
+          <t>Mutual funds</t>
+        </is>
+      </c>
+      <c r="F11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12" t="n"/>
+      <c r="B12" s="12" t="n"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E12" s="13" t="inlineStr">
+        <is>
+          <t>ETF</t>
+        </is>
+      </c>
+      <c r="F12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="12" t="n"/>
+      <c r="B13" s="12" t="n"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="13" t="inlineStr">
+        <is>
+          <t>Foreign exchange (Forex)</t>
+        </is>
+      </c>
+      <c r="F13" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="12" t="n"/>
+      <c r="B14" s="12" t="n"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E14" s="13" t="inlineStr">
+        <is>
+          <t>Derivatives</t>
+        </is>
+      </c>
+      <c r="F14" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="12" t="n"/>
+      <c r="B15" s="12" t="n"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E15" s="13" t="inlineStr">
+        <is>
+          <t>Crypto</t>
+        </is>
+      </c>
+      <c r="F15" s="13" t="n">
+        <v>126</v>
+      </c>
+      <c r="G15" s="13" t="n">
+        <v>54</v>
+      </c>
+      <c r="H15" s="14" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="12" t="n"/>
+      <c r="B16" s="12" t="n"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="13" t="inlineStr">
+        <is>
+          <t>I have not invested in any product before</t>
+        </is>
+      </c>
+      <c r="F16" s="13" t="n">
+        <v>108</v>
+      </c>
+      <c r="G16" s="13" t="n">
+        <v>52</v>
+      </c>
+      <c r="H16" s="14" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="15" t="n"/>
+      <c r="B17" s="15" t="n"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E17" s="16" t="inlineStr">
+        <is>
+          <t>Others, please specify</t>
+        </is>
+      </c>
+      <c r="F17" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="B18" s="9" t="inlineStr">
+        <is>
+          <t>Which product channels have you invested in financially in the past 3 years (From January 2022 to Now)? Multiple answers can be selected.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E18" s="10" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>300</v>
+      </c>
+      <c r="G18" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="H18" s="11" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="12" t="n"/>
+      <c r="B19" s="12" t="n"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="13" t="inlineStr">
+        <is>
+          <t>Saving</t>
+        </is>
+      </c>
+      <c r="F19" s="13" t="n">
+        <v>188</v>
+      </c>
+      <c r="G19" s="13" t="n">
+        <v>110</v>
+      </c>
+      <c r="H19" s="14" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="12" t="n"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" s="13" t="inlineStr">
+        <is>
+          <t>Crypto</t>
+        </is>
+      </c>
+      <c r="F20" s="13" t="n">
+        <v>35</v>
+      </c>
+      <c r="G20" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="H20" s="14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="12" t="n"/>
+      <c r="B21" s="12" t="n"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E21" s="13" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="F21" s="13" t="n">
+        <v>210</v>
+      </c>
+      <c r="G21" s="13" t="n">
+        <v>105</v>
+      </c>
+      <c r="H21" s="14" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="12" t="n"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E22" s="13" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="F22" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="G22" s="13" t="n">
+        <v>23</v>
+      </c>
+      <c r="H22" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="12" t="n"/>
+      <c r="B23" s="12" t="n"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E23" s="13" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="F23" s="13" t="n">
+        <v>94</v>
+      </c>
+      <c r="G23" s="13" t="n">
+        <v>44</v>
+      </c>
+      <c r="H23" s="14" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="12" t="n"/>
+      <c r="B24" s="12" t="n"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E24" s="13" t="inlineStr">
+        <is>
+          <t>Real estate</t>
+        </is>
+      </c>
+      <c r="F24" s="13" t="n">
+        <v>67</v>
+      </c>
+      <c r="G24" s="13" t="n">
+        <v>23</v>
+      </c>
+      <c r="H24" s="14" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="12" t="n"/>
+      <c r="B25" s="12" t="n"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E25" s="13" t="inlineStr">
+        <is>
+          <t>Mutual funds</t>
+        </is>
+      </c>
+      <c r="F25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="12" t="n"/>
+      <c r="B26" s="12" t="n"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E26" s="13" t="inlineStr">
+        <is>
+          <t>ETF</t>
+        </is>
+      </c>
+      <c r="F26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="12" t="n"/>
+      <c r="B27" s="12" t="n"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E27" s="13" t="inlineStr">
+        <is>
+          <t>Foreign exchange (Forex)</t>
+        </is>
+      </c>
+      <c r="F27" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="12" t="n"/>
+      <c r="B28" s="12" t="n"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E28" s="13" t="inlineStr">
+        <is>
+          <t>Derivatives</t>
+        </is>
+      </c>
+      <c r="F28" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="12" t="n"/>
+      <c r="B29" s="12" t="n"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E29" s="13" t="inlineStr">
+        <is>
+          <t>Others, please specify</t>
+        </is>
+      </c>
+      <c r="F29" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="12" t="n"/>
+      <c r="B30" s="12" t="n"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E30" s="13" t="inlineStr">
+        <is>
+          <t>I have not invested in any product before</t>
+        </is>
+      </c>
+      <c r="F30" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="15" t="n"/>
+      <c r="B31" s="15" t="n"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E31" s="16" t="inlineStr">
+        <is>
+          <t>I have not invested in any product in the past 3 years</t>
+        </is>
+      </c>
+      <c r="F31" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="B32" s="9" t="inlineStr">
+        <is>
+          <t>What financial product channels are you currently investing in? Multiple answers are possible</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E32" s="10" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+      <c r="F32" s="10" t="n">
+        <v>300</v>
+      </c>
+      <c r="G32" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="H32" s="11" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="12" t="n"/>
+      <c r="B33" s="12" t="n"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E33" s="13" t="inlineStr">
+        <is>
+          <t>Saving</t>
+        </is>
+      </c>
+      <c r="F33" s="13" t="n">
+        <v>159</v>
+      </c>
+      <c r="G33" s="13" t="n">
+        <v>106</v>
+      </c>
+      <c r="H33" s="14" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="12" t="n"/>
+      <c r="B34" s="12" t="n"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E34" s="13" t="inlineStr">
+        <is>
+          <t>Crypto</t>
+        </is>
+      </c>
+      <c r="F34" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="G34" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H34" s="14" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="12" t="n"/>
+      <c r="B35" s="12" t="n"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E35" s="13" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="F35" s="13" t="n">
+        <v>210</v>
+      </c>
+      <c r="G35" s="13" t="n">
+        <v>105</v>
+      </c>
+      <c r="H35" s="14" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="12" t="n"/>
+      <c r="B36" s="12" t="n"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E36" s="13" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="F36" s="13" t="n">
+        <v>23</v>
+      </c>
+      <c r="G36" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="H36" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="12" t="n"/>
+      <c r="B37" s="12" t="n"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E37" s="13" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="F37" s="13" t="n">
+        <v>83</v>
+      </c>
+      <c r="G37" s="13" t="n">
+        <v>42</v>
+      </c>
+      <c r="H37" s="14" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="12" t="n"/>
+      <c r="B38" s="12" t="n"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E38" s="13" t="inlineStr">
+        <is>
+          <t>Real estate</t>
+        </is>
+      </c>
+      <c r="F38" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="G38" s="13" t="n">
+        <v>23</v>
+      </c>
+      <c r="H38" s="14" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12" t="n"/>
+      <c r="B39" s="12" t="n"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E39" s="13" t="inlineStr">
+        <is>
+          <t>Mutual funds</t>
+        </is>
+      </c>
+      <c r="F39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="12" t="n"/>
+      <c r="B40" s="12" t="n"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E40" s="13" t="inlineStr">
+        <is>
+          <t>ETF</t>
+        </is>
+      </c>
+      <c r="F40" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="12" t="n"/>
+      <c r="B41" s="12" t="n"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E41" s="13" t="inlineStr">
+        <is>
+          <t>Foreign exchange (Forex)</t>
+        </is>
+      </c>
+      <c r="F41" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="12" t="n"/>
+      <c r="B42" s="12" t="n"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E42" s="13" t="inlineStr">
+        <is>
+          <t>Derivatives</t>
+        </is>
+      </c>
+      <c r="F42" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H42" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12" t="n"/>
+      <c r="B43" s="12" t="n"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E43" s="13" t="inlineStr">
+        <is>
+          <t>Others, please specify</t>
+        </is>
+      </c>
+      <c r="F43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="12" t="n"/>
+      <c r="B44" s="12" t="n"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E44" s="13" t="inlineStr">
+        <is>
+          <t>I have not invested in any product before</t>
+        </is>
+      </c>
+      <c r="F44" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="12" t="n"/>
+      <c r="B45" s="12" t="n"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E45" s="13" t="inlineStr">
+        <is>
+          <t>I have not invested in any product in the past 3 years</t>
+        </is>
+      </c>
+      <c r="F45" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="15" t="n"/>
+      <c r="B46" s="15" t="n"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E46" s="16" t="inlineStr">
+        <is>
+          <t>I’m not investing in finance</t>
+        </is>
+      </c>
+      <c r="F46" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="inlineStr">
+        <is>
+          <t>A3_intend</t>
+        </is>
+      </c>
+      <c r="B47" s="9" t="inlineStr">
+        <is>
+          <t>What financial product channels do you intend to invest in the next 6 months. Multiple answers are possible</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E47" s="10" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+      <c r="F47" s="10" t="n">
+        <v>90</v>
+      </c>
+      <c r="G47" s="10" t="n">
+        <v>45</v>
+      </c>
+      <c r="H47" s="11" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="12" t="n"/>
+      <c r="B48" s="12" t="n"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E48" s="13" t="inlineStr">
+        <is>
+          <t>Saving</t>
+        </is>
+      </c>
+      <c r="F48" s="13" t="n">
+        <v>55</v>
+      </c>
+      <c r="G48" s="13" t="n">
+        <v>34</v>
+      </c>
+      <c r="H48" s="14" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="12" t="n"/>
+      <c r="B49" s="12" t="n"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E49" s="13" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="F49" s="13" t="n">
+        <v>90</v>
+      </c>
+      <c r="G49" s="13" t="n">
+        <v>45</v>
+      </c>
+      <c r="H49" s="14" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="12" t="n"/>
+      <c r="B50" s="12" t="n"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E50" s="13" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="F50" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G50" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="H50" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="12" t="n"/>
+      <c r="B51" s="12" t="n"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E51" s="13" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="F51" s="13" t="n">
+        <v>36</v>
+      </c>
+      <c r="G51" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="H51" s="14" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="12" t="n"/>
+      <c r="B52" s="12" t="n"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E52" s="13" t="inlineStr">
+        <is>
+          <t>Real estate</t>
+        </is>
+      </c>
+      <c r="F52" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="G52" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H52" s="14" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="12" t="n"/>
+      <c r="B53" s="12" t="n"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E53" s="13" t="inlineStr">
+        <is>
+          <t>Mutual funds</t>
+        </is>
+      </c>
+      <c r="F53" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="12" t="n"/>
+      <c r="B54" s="12" t="n"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E54" s="13" t="inlineStr">
+        <is>
+          <t>ETF</t>
+        </is>
+      </c>
+      <c r="F54" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="12" t="n"/>
+      <c r="B55" s="12" t="n"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E55" s="13" t="inlineStr">
+        <is>
+          <t>Foreign exchange (Forex)</t>
+        </is>
+      </c>
+      <c r="F55" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="12" t="n"/>
+      <c r="B56" s="12" t="n"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E56" s="13" t="inlineStr">
+        <is>
+          <t>Derivatives</t>
+        </is>
+      </c>
+      <c r="F56" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="12" t="n"/>
+      <c r="B57" s="12" t="n"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E57" s="13" t="inlineStr">
+        <is>
+          <t>Crypto</t>
+        </is>
+      </c>
+      <c r="F57" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="G57" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H57" s="14" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="12" t="n"/>
+      <c r="B58" s="12" t="n"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E58" s="13" t="inlineStr">
+        <is>
+          <t>I do not intend to invest in finance</t>
+        </is>
+      </c>
+      <c r="F58" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="15" t="n"/>
+      <c r="B59" s="15" t="n"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E59" s="16" t="inlineStr">
+        <is>
+          <t>Khác (ghi rõ)</t>
+        </is>
+      </c>
+      <c r="F59" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="B32:B46"/>
+    <mergeCell ref="B18:B31"/>
+    <mergeCell ref="A47:A59"/>
+    <mergeCell ref="B47:B59"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B5:B17"/>
+    <mergeCell ref="A18:A31"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col hidden="1" width="13" customWidth="1" min="3" max="3"/>
+    <col hidden="1" width="13" customWidth="1" min="4" max="4"/>
+    <col width="40" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" hidden="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>qre_name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>qre_lbl</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>qre_type</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>cat_val</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>cat_lbl</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>S2 &gt; 0@City@Total@val@A</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>S2 == 1@City@Hanoi@val@B</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>S2 == 2@City@HCMC@val@C</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" hidden="1">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>S2 &gt; 0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>S2 == 1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>S2 == 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cell content: percentage(%)</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="6" t="n"/>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Weighted with: Weighting</t>
+        </is>
+      </c>
+      <c r="F4" s="7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>Hanoi</t>
+        </is>
+      </c>
+      <c r="H4" s="7" t="inlineStr">
+        <is>
+          <t>HCMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>Please select all the product channels that you have invested in financially so far. Multiple answers are possible</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="inlineStr">
+        <is>
+          <t>Weighted Base</t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>922.8999999999997</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>456.3</v>
+      </c>
+      <c r="H5" s="11" t="n">
+        <v>466.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12" t="n"/>
+      <c r="B6" s="12" t="n"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" s="13" t="inlineStr">
+        <is>
+          <t>Saving</t>
+        </is>
+      </c>
+      <c r="F6" s="18" t="n">
+        <v>0.4849929569834219</v>
+      </c>
+      <c r="G6" s="18" t="n">
+        <v>0.547227701073855</v>
+      </c>
+      <c r="H6" s="19" t="n">
+        <v>0.424132018859837</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="12" t="n"/>
+      <c r="B7" s="12" t="n"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="13" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="F7" s="18" t="n">
+        <v>0.2668761512623253</v>
+      </c>
+      <c r="G7" s="18" t="n">
+        <v>0.2373438527284681</v>
+      </c>
+      <c r="H7" s="19" t="n">
+        <v>0.2957565366480926</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12" t="n"/>
+      <c r="B8" s="12" t="n"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E8" s="13" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="F8" s="18" t="n">
+        <v>0.0308809188427782</v>
+      </c>
+      <c r="G8" s="18" t="n">
+        <v>0.05610344071882534</v>
+      </c>
+      <c r="H8" s="19" t="n">
+        <v>0.006215173596228032</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12" t="n"/>
+      <c r="B9" s="12" t="n"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E9" s="13" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.6093834651641565</v>
+      </c>
+      <c r="G9" s="18" t="n">
+        <v>0.6112206881437651</v>
+      </c>
+      <c r="H9" s="19" t="n">
+        <v>0.6075867981140164</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12" t="n"/>
+      <c r="B10" s="12" t="n"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="13" t="inlineStr">
+        <is>
+          <t>Real estate</t>
+        </is>
+      </c>
+      <c r="F10" s="18" t="n">
+        <v>0.5773106512081483</v>
+      </c>
+      <c r="G10" s="18" t="n">
+        <v>0.5108481262327417</v>
+      </c>
+      <c r="H10" s="19" t="n">
+        <v>0.6423060437205316</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="n"/>
+      <c r="B11" s="12" t="n"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E11" s="13" t="inlineStr">
+        <is>
+          <t>Mutual funds</t>
+        </is>
+      </c>
+      <c r="F11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12" t="n"/>
+      <c r="B12" s="12" t="n"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E12" s="13" t="inlineStr">
+        <is>
+          <t>ETF</t>
+        </is>
+      </c>
+      <c r="F12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="12" t="n"/>
+      <c r="B13" s="12" t="n"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="13" t="inlineStr">
+        <is>
+          <t>Foreign exchange (Forex)</t>
+        </is>
+      </c>
+      <c r="F13" s="18" t="n">
+        <v>0.009860223209448479</v>
+      </c>
+      <c r="G13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19" t="n">
+        <v>0.01950278611230176</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="12" t="n"/>
+      <c r="B14" s="12" t="n"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E14" s="13" t="inlineStr">
+        <is>
+          <t>Derivatives</t>
+        </is>
+      </c>
+      <c r="F14" s="18" t="n">
+        <v>0.01300249214432767</v>
+      </c>
+      <c r="G14" s="18" t="n">
+        <v>0.01271093578785887</v>
+      </c>
+      <c r="H14" s="19" t="n">
+        <v>0.01328761251607372</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="12" t="n"/>
+      <c r="B15" s="12" t="n"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E15" s="13" t="inlineStr">
+        <is>
+          <t>Crypto</t>
+        </is>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>0.4245313685122982</v>
+      </c>
+      <c r="G15" s="18" t="n">
+        <v>0.3677405215866755</v>
+      </c>
+      <c r="H15" s="19" t="n">
+        <v>0.4800685812258894</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="12" t="n"/>
+      <c r="B16" s="12" t="n"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="13" t="inlineStr">
+        <is>
+          <t>I have not invested in any product before</t>
+        </is>
+      </c>
+      <c r="F16" s="18" t="n">
+        <v>0.3645031964459855</v>
+      </c>
+      <c r="G16" s="18" t="n">
+        <v>0.354152969537585</v>
+      </c>
+      <c r="H16" s="19" t="n">
+        <v>0.3746249464209172</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="15" t="n"/>
+      <c r="B17" s="15" t="n"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E17" s="16" t="inlineStr">
+        <is>
+          <t>Others, please specify</t>
+        </is>
+      </c>
+      <c r="F17" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="B18" s="9" t="inlineStr">
+        <is>
+          <t>Which product channels have you invested in financially in the past 3 years (From January 2022 to Now)? Multiple answers can be selected.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E18" s="10" t="inlineStr">
+        <is>
+          <t>Weighted Base</t>
+        </is>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>931.5999999999998</v>
+      </c>
+      <c r="G18" s="10" t="n">
+        <v>465.0000000000001</v>
+      </c>
+      <c r="H18" s="11" t="n">
+        <v>466.6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="12" t="n"/>
+      <c r="B19" s="12" t="n"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="13" t="inlineStr">
+        <is>
+          <t>Saving</t>
+        </is>
+      </c>
+      <c r="F19" s="18" t="n">
+        <v>0.6311721768999571</v>
+      </c>
+      <c r="G19" s="18" t="n">
+        <v>0.7393548387096774</v>
+      </c>
+      <c r="H19" s="19" t="n">
+        <v>0.5233604800685812</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="12" t="n"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" s="13" t="inlineStr">
+        <is>
+          <t>Crypto</t>
+        </is>
+      </c>
+      <c r="F20" s="18" t="n">
+        <v>0.1149635036496351</v>
+      </c>
+      <c r="G20" s="18" t="n">
+        <v>0.06666666666666665</v>
+      </c>
+      <c r="H20" s="19" t="n">
+        <v>0.1630947278182597</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="12" t="n"/>
+      <c r="B21" s="12" t="n"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E21" s="13" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="F21" s="18" t="n">
+        <v>0.6975096607986261</v>
+      </c>
+      <c r="G21" s="18" t="n">
+        <v>0.6944086021505375</v>
+      </c>
+      <c r="H21" s="19" t="n">
+        <v>0.7006000857265324</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="12" t="n"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E22" s="13" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="F22" s="18" t="n">
+        <v>0.08168741949334478</v>
+      </c>
+      <c r="G22" s="18" t="n">
+        <v>0.1511827956989247</v>
+      </c>
+      <c r="H22" s="19" t="n">
+        <v>0.01243034719245606</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="12" t="n"/>
+      <c r="B23" s="12" t="n"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E23" s="13" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="F23" s="18" t="n">
+        <v>0.3188063546586518</v>
+      </c>
+      <c r="G23" s="18" t="n">
+        <v>0.2984946236559139</v>
+      </c>
+      <c r="H23" s="19" t="n">
+        <v>0.3390484354907843</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="12" t="n"/>
+      <c r="B24" s="12" t="n"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E24" s="13" t="inlineStr">
+        <is>
+          <t>Real estate</t>
+        </is>
+      </c>
+      <c r="F24" s="18" t="n">
+        <v>0.2227350794332331</v>
+      </c>
+      <c r="G24" s="18" t="n">
+        <v>0.1520430107526881</v>
+      </c>
+      <c r="H24" s="19" t="n">
+        <v>0.2931847406772396</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="12" t="n"/>
+      <c r="B25" s="12" t="n"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E25" s="13" t="inlineStr">
+        <is>
+          <t>Mutual funds</t>
+        </is>
+      </c>
+      <c r="F25" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="12" t="n"/>
+      <c r="B26" s="12" t="n"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E26" s="13" t="inlineStr">
+        <is>
+          <t>ETF</t>
+        </is>
+      </c>
+      <c r="F26" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="12" t="n"/>
+      <c r="B27" s="12" t="n"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E27" s="13" t="inlineStr">
+        <is>
+          <t>Foreign exchange (Forex)</t>
+        </is>
+      </c>
+      <c r="F27" s="18" t="n">
+        <v>0.012881064834693</v>
+      </c>
+      <c r="G27" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="19" t="n">
+        <v>0.02571795970852979</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="12" t="n"/>
+      <c r="B28" s="12" t="n"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E28" s="13" t="inlineStr">
+        <is>
+          <t>Derivatives</t>
+        </is>
+      </c>
+      <c r="F28" s="18" t="n">
+        <v>0.01642335766423358</v>
+      </c>
+      <c r="G28" s="18" t="n">
+        <v>0.01956989247311828</v>
+      </c>
+      <c r="H28" s="19" t="n">
+        <v>0.01328761251607372</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="12" t="n"/>
+      <c r="B29" s="12" t="n"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E29" s="13" t="inlineStr">
+        <is>
+          <t>Others, please specify</t>
+        </is>
+      </c>
+      <c r="F29" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="12" t="n"/>
+      <c r="B30" s="12" t="n"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E30" s="13" t="inlineStr">
+        <is>
+          <t>I have not invested in any product before</t>
+        </is>
+      </c>
+      <c r="F30" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="15" t="n"/>
+      <c r="B31" s="15" t="n"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E31" s="16" t="inlineStr">
+        <is>
+          <t>I have not invested in any product in the past 3 years</t>
+        </is>
+      </c>
+      <c r="F31" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="B32" s="9" t="inlineStr">
+        <is>
+          <t>What financial product channels are you currently investing in? Multiple answers are possible</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E32" s="10" t="inlineStr">
+        <is>
+          <t>Weighted Base</t>
+        </is>
+      </c>
+      <c r="F32" s="10" t="n">
+        <v>931.5999999999998</v>
+      </c>
+      <c r="G32" s="10" t="n">
+        <v>465.0000000000001</v>
+      </c>
+      <c r="H32" s="11" t="n">
+        <v>466.6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="12" t="n"/>
+      <c r="B33" s="12" t="n"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E33" s="13" t="inlineStr">
+        <is>
+          <t>Saving</t>
+        </is>
+      </c>
+      <c r="F33" s="18" t="n">
+        <v>0.5331687419493345</v>
+      </c>
+      <c r="G33" s="18" t="n">
+        <v>0.7126881720430107</v>
+      </c>
+      <c r="H33" s="19" t="n">
+        <v>0.3542648949849978</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="12" t="n"/>
+      <c r="B34" s="12" t="n"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E34" s="13" t="inlineStr">
+        <is>
+          <t>Crypto</t>
+        </is>
+      </c>
+      <c r="F34" s="18" t="n">
+        <v>0.09145556032632031</v>
+      </c>
+      <c r="G34" s="18" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H34" s="19" t="n">
+        <v>0.1427346763823403</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="12" t="n"/>
+      <c r="B35" s="12" t="n"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E35" s="13" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="F35" s="18" t="n">
+        <v>0.6975096607986261</v>
+      </c>
+      <c r="G35" s="18" t="n">
+        <v>0.6944086021505375</v>
+      </c>
+      <c r="H35" s="19" t="n">
+        <v>0.7006000857265324</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="12" t="n"/>
+      <c r="B36" s="12" t="n"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E36" s="13" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="F36" s="18" t="n">
+        <v>0.07503220266208672</v>
+      </c>
+      <c r="G36" s="18" t="n">
+        <v>0.1440860215053763</v>
+      </c>
+      <c r="H36" s="19" t="n">
+        <v>0.006215173596228032</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="12" t="n"/>
+      <c r="B37" s="12" t="n"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E37" s="13" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="F37" s="18" t="n">
+        <v>0.281987977672821</v>
+      </c>
+      <c r="G37" s="18" t="n">
+        <v>0.2851612903225806</v>
+      </c>
+      <c r="H37" s="19" t="n">
+        <v>0.2788255465066438</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="12" t="n"/>
+      <c r="B38" s="12" t="n"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E38" s="13" t="inlineStr">
+        <is>
+          <t>Real estate</t>
+        </is>
+      </c>
+      <c r="F38" s="18" t="n">
+        <v>0.1996565049377415</v>
+      </c>
+      <c r="G38" s="18" t="n">
+        <v>0.1520430107526881</v>
+      </c>
+      <c r="H38" s="19" t="n">
+        <v>0.2471067295327904</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12" t="n"/>
+      <c r="B39" s="12" t="n"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E39" s="13" t="inlineStr">
+        <is>
+          <t>Mutual funds</t>
+        </is>
+      </c>
+      <c r="F39" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="12" t="n"/>
+      <c r="B40" s="12" t="n"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E40" s="13" t="inlineStr">
+        <is>
+          <t>ETF</t>
+        </is>
+      </c>
+      <c r="F40" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="12" t="n"/>
+      <c r="B41" s="12" t="n"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E41" s="13" t="inlineStr">
+        <is>
+          <t>Foreign exchange (Forex)</t>
+        </is>
+      </c>
+      <c r="F41" s="18" t="n">
+        <v>0.012881064834693</v>
+      </c>
+      <c r="G41" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="19" t="n">
+        <v>0.02571795970852979</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="12" t="n"/>
+      <c r="B42" s="12" t="n"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E42" s="13" t="inlineStr">
+        <is>
+          <t>Derivatives</t>
+        </is>
+      </c>
+      <c r="F42" s="18" t="n">
+        <v>0.01642335766423358</v>
+      </c>
+      <c r="G42" s="18" t="n">
+        <v>0.01956989247311828</v>
+      </c>
+      <c r="H42" s="19" t="n">
+        <v>0.01328761251607372</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12" t="n"/>
+      <c r="B43" s="12" t="n"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E43" s="13" t="inlineStr">
+        <is>
+          <t>Others, please specify</t>
+        </is>
+      </c>
+      <c r="F43" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="12" t="n"/>
+      <c r="B44" s="12" t="n"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E44" s="13" t="inlineStr">
+        <is>
+          <t>I have not invested in any product before</t>
+        </is>
+      </c>
+      <c r="F44" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="12" t="n"/>
+      <c r="B45" s="12" t="n"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E45" s="13" t="inlineStr">
+        <is>
+          <t>I have not invested in any product in the past 3 years</t>
+        </is>
+      </c>
+      <c r="F45" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="15" t="n"/>
+      <c r="B46" s="15" t="n"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E46" s="16" t="inlineStr">
+        <is>
+          <t>I’m not investing in finance</t>
+        </is>
+      </c>
+      <c r="F46" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="inlineStr">
+        <is>
+          <t>A3_intend</t>
+        </is>
+      </c>
+      <c r="B47" s="9" t="inlineStr">
+        <is>
+          <t>What financial product channels do you intend to invest in the next 6 months. Multiple answers are possible</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E47" s="10" t="inlineStr">
+        <is>
+          <t>Weighted Base</t>
+        </is>
+      </c>
+      <c r="F47" s="10" t="n">
+        <v>281.8</v>
+      </c>
+      <c r="G47" s="10" t="n">
+        <v>142.1000000000001</v>
+      </c>
+      <c r="H47" s="11" t="n">
+        <v>139.7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="12" t="n"/>
+      <c r="B48" s="12" t="n"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E48" s="13" t="inlineStr">
+        <is>
+          <t>Saving</t>
+        </is>
+      </c>
+      <c r="F48" s="18" t="n">
+        <v>0.6114265436479774</v>
+      </c>
+      <c r="G48" s="18" t="n">
+        <v>0.7558057705840955</v>
+      </c>
+      <c r="H48" s="19" t="n">
+        <v>0.4645669291338581</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="12" t="n"/>
+      <c r="B49" s="12" t="n"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E49" s="13" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="F49" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="12" t="n"/>
+      <c r="B50" s="12" t="n"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E50" s="13" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="F50" s="18" t="n">
+        <v>0.1100070972320795</v>
+      </c>
+      <c r="G50" s="18" t="n">
+        <v>0.1977480647431386</v>
+      </c>
+      <c r="H50" s="19" t="n">
+        <v>0.02075876879026485</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="12" t="n"/>
+      <c r="B51" s="12" t="n"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E51" s="13" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="F51" s="18" t="n">
+        <v>0.4073811213626686</v>
+      </c>
+      <c r="G51" s="18" t="n">
+        <v>0.4475721323011962</v>
+      </c>
+      <c r="H51" s="19" t="n">
+        <v>0.3664996420901931</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="12" t="n"/>
+      <c r="B52" s="12" t="n"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E52" s="13" t="inlineStr">
+        <is>
+          <t>Real estate</t>
+        </is>
+      </c>
+      <c r="F52" s="18" t="n">
+        <v>0.2462739531582683</v>
+      </c>
+      <c r="G52" s="18" t="n">
+        <v>0.1365235749472202</v>
+      </c>
+      <c r="H52" s="19" t="n">
+        <v>0.3579098067287043</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="12" t="n"/>
+      <c r="B53" s="12" t="n"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E53" s="13" t="inlineStr">
+        <is>
+          <t>Mutual funds</t>
+        </is>
+      </c>
+      <c r="F53" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="12" t="n"/>
+      <c r="B54" s="12" t="n"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E54" s="13" t="inlineStr">
+        <is>
+          <t>ETF</t>
+        </is>
+      </c>
+      <c r="F54" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="12" t="n"/>
+      <c r="B55" s="12" t="n"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E55" s="13" t="inlineStr">
+        <is>
+          <t>Foreign exchange (Forex)</t>
+        </is>
+      </c>
+      <c r="F55" s="18" t="n">
+        <v>0.01171043293115685</v>
+      </c>
+      <c r="G55" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="19" t="n">
+        <v>0.02362204724409448</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="12" t="n"/>
+      <c r="B56" s="12" t="n"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E56" s="13" t="inlineStr">
+        <is>
+          <t>Derivatives</t>
+        </is>
+      </c>
+      <c r="F56" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="12" t="n"/>
+      <c r="B57" s="12" t="n"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E57" s="13" t="inlineStr">
+        <is>
+          <t>Crypto</t>
+        </is>
+      </c>
+      <c r="F57" s="18" t="n">
+        <v>0.2040454222853088</v>
+      </c>
+      <c r="G57" s="18" t="n">
+        <v>0.08444757213230117</v>
+      </c>
+      <c r="H57" s="19" t="n">
+        <v>0.3256979241231208</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="12" t="n"/>
+      <c r="B58" s="12" t="n"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E58" s="13" t="inlineStr">
+        <is>
+          <t>I do not intend to invest in finance</t>
+        </is>
+      </c>
+      <c r="F58" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="15" t="n"/>
+      <c r="B59" s="15" t="n"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E59" s="16" t="inlineStr">
+        <is>
+          <t>Khác (ghi rõ)</t>
+        </is>
+      </c>
+      <c r="F59" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="B32:B46"/>
+    <mergeCell ref="B18:B31"/>
+    <mergeCell ref="A47:A59"/>
+    <mergeCell ref="B47:B59"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B5:B17"/>
+    <mergeCell ref="A18:A31"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>